--- a/DND/Player Cards/Magic Items Tracker.xlsx
+++ b/DND/Player Cards/Magic Items Tracker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
@@ -1550,8 +1550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1847,7 +1847,7 @@
         <v>135</v>
       </c>
       <c r="E25" s="45">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F25" s="47">
         <v>150</v>
@@ -2284,7 +2284,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
@@ -2521,6 +2521,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C23:E23"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="C14:E14"/>
@@ -2528,11 +2533,6 @@
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="C22:E22"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C23:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DND/Player Cards/Magic Items Tracker.xlsx
+++ b/DND/Player Cards/Magic Items Tracker.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="82">
   <si>
     <t>Coloneous</t>
   </si>
@@ -268,6 +268,12 @@
 - If Jealousy successfully hits on this turn and Exemplarly does not, automatically deals 1d4 necrotic damage to target. 
 - If Exemplarly successfully hits on this turn and Jealousy does not, automatically deals 1d4 necrotic damage to wielder. 
 - If both Exemplarly and Jealousy hit on this turn, target makes a constitution saving throw (DC d20 roll without modifier). Failed saves take 1d4 Necrotic Damage.</t>
+  </si>
+  <si>
+    <t>Staff of the Wild</t>
+  </si>
+  <si>
+    <t>Helm of Telepathy</t>
   </si>
 </sst>
 </file>
@@ -973,7 +979,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -986,9 +992,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1032,9 +1035,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1238,6 +1238,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1551,7 +1560,7 @@
   <dimension ref="B1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1565,16 +1574,16 @@
     <row r="1" spans="2:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1"/>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="68" t="s">
+      <c r="E2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="69" t="s">
+      <c r="F2" s="67" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -1585,288 +1594,292 @@
       </c>
     </row>
     <row r="3" spans="2:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="63" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="H3" s="28" t="s">
+      <c r="F3" s="101" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="30" t="s">
+      <c r="I3" s="27"/>
+      <c r="J3" s="28" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8"/>
-      <c r="H4" s="31" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="H4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="29"/>
-      <c r="J4" s="32" t="s">
+      <c r="I4" s="27"/>
+      <c r="J4" s="30" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="78"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-      <c r="H5" s="33" t="s">
+      <c r="B5" s="76"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="H5" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
     </row>
     <row r="6" spans="2:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="H6" s="34" t="s">
+      <c r="F6" s="13"/>
+      <c r="H6" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
     </row>
     <row r="7" spans="2:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17"/>
-      <c r="H7" s="35" t="s">
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+      <c r="H7" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
     </row>
     <row r="8" spans="2:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
-      <c r="H8" s="36" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="H8" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
     </row>
     <row r="9" spans="2:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="78"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="8"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="79"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
     </row>
     <row r="12" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="79"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="18"/>
     </row>
     <row r="13" spans="2:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="78"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="2:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="20" t="s">
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="19" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="15" t="s">
+      <c r="C15" s="15"/>
+      <c r="D15" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="21"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="20"/>
     </row>
     <row r="16" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="77" t="s">
+      <c r="B16" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="100" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="77"/>
+      <c r="C17" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="79"/>
-      <c r="C17" s="25" t="s">
+      <c r="D17" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="77"/>
+      <c r="C18" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="79"/>
-      <c r="C18" s="25" t="s">
+      <c r="D18" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="78"/>
+      <c r="C19" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="80"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="37" t="s">
+      <c r="E19" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="38" t="s">
+      <c r="F19" s="36" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="80"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="37" t="s">
+      <c r="B20" s="78"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="35" t="s">
         <v>31</v>
       </c>
       <c r="E20" s="4"/>
-      <c r="F20" s="38" t="s">
+      <c r="F20" s="36" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="77" t="s">
+      <c r="B21" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="8"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="7"/>
     </row>
     <row r="22" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="79"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="19"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="18"/>
     </row>
     <row r="23" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="79"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="19"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="18"/>
     </row>
     <row r="24" spans="2:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="80"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="40"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="38"/>
     </row>
     <row r="25" spans="2:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="45">
+      <c r="C25" s="43">
         <v>150</v>
       </c>
-      <c r="D25" s="45">
+      <c r="D25" s="43">
         <v>135</v>
       </c>
-      <c r="E25" s="45">
+      <c r="E25" s="43">
         <v>600</v>
       </c>
-      <c r="F25" s="47">
+      <c r="F25" s="45">
         <v>150</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="44">
+      <c r="C26" s="42">
         <v>117</v>
       </c>
-      <c r="D26" s="44">
+      <c r="D26" s="42">
         <v>65</v>
       </c>
-      <c r="E26" s="44">
+      <c r="E26" s="42">
         <v>126</v>
       </c>
-      <c r="F26" s="46">
+      <c r="F26" s="44">
         <v>81</v>
       </c>
     </row>
@@ -1909,12 +1922,12 @@
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="26" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="29" t="s">
         <v>14</v>
       </c>
       <c r="K4" t="s">
@@ -1922,7 +1935,7 @@
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="31" t="s">
         <v>19</v>
       </c>
       <c r="K5" t="s">
@@ -1930,17 +1943,17 @@
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="32" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="33" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="34" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1950,108 +1963,108 @@
       </c>
     </row>
     <row r="11" spans="2:11" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="81" t="s">
+      <c r="C11" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="82"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="84"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="82"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="49" t="s">
+      <c r="D12" s="51"/>
+      <c r="E12" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="61"/>
+      <c r="F12" s="59"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="54"/>
-      <c r="E13" s="49" t="s">
+      <c r="D13" s="52"/>
+      <c r="E13" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="58"/>
+      <c r="F13" s="56"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="52"/>
-      <c r="E14" s="49" t="s">
+      <c r="D14" s="50"/>
+      <c r="E14" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="58"/>
+      <c r="F14" s="56"/>
     </row>
     <row r="15" spans="2:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="88"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="86"/>
     </row>
     <row r="16" spans="2:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="88"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="86"/>
     </row>
     <row r="17" spans="3:10" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="85"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="86"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="84"/>
     </row>
     <row r="20" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I21" s="89" t="s">
+      <c r="I21" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="J21" s="90"/>
+      <c r="J21" s="88"/>
     </row>
     <row r="22" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I22" s="91"/>
-      <c r="J22" s="92"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="90"/>
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I23" s="71" t="s">
+      <c r="I23" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="J23" s="74">
+      <c r="J23" s="72">
         <f xml:space="preserve"> IFERROR(((J24 / 20) * IF(J25 = "C", 50, IF(J25 = "UC", 400, IF(J25 = "R", 4500, IF(J25 = "VR", 45000, IF(J25 = "L", 450000, ERF)))))) + IF(J25 = "C", 50, IF(J25 = "UC", 100, IF(J25 = "R", 500, IF(J25 = "VR", 5000, IF(J25 = "L", 50000, ERF))))), "N/A")</f>
         <v>4775</v>
       </c>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I24" s="72" t="s">
+      <c r="I24" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="J24" s="58">
+      <c r="J24" s="56">
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I25" s="73" t="s">
+      <c r="I25" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="J25" s="70" t="s">
+      <c r="J25" s="68" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="26" spans="3:10" ht="61.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I26" s="75" t="s">
+      <c r="I26" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="J26" s="76"/>
+      <c r="J26" s="74"/>
     </row>
     <row r="27" spans="3:10" ht="51" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="3:10" ht="51" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2098,76 +2111,76 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="49" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="60"/>
+      <c r="E3" s="58"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="49" t="s">
+      <c r="C4" s="54"/>
+      <c r="D4" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="56" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="56" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="87"/>
-      <c r="E6" s="88"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="86"/>
     </row>
     <row r="7" spans="2:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="87" t="s">
+      <c r="C7" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="87"/>
-      <c r="E7" s="88"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="86"/>
     </row>
     <row r="8" spans="2:5" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="97"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2198,76 +2211,76 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="49" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="59"/>
+      <c r="E3" s="57"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="49" t="s">
+      <c r="C4" s="54"/>
+      <c r="D4" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="56" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="56" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="87"/>
-      <c r="E6" s="88"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="86"/>
     </row>
     <row r="7" spans="2:5" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="98" t="s">
+      <c r="C7" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="87"/>
-      <c r="E7" s="88"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="86"/>
     </row>
     <row r="8" spans="2:5" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="100"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2298,234 +2311,229 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="49" t="s">
+      <c r="C3" s="61"/>
+      <c r="D3" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="62"/>
+      <c r="E3" s="60"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="49" t="s">
+      <c r="C4" s="54"/>
+      <c r="D4" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="56" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="56" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="87"/>
-      <c r="E6" s="88"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="86"/>
     </row>
     <row r="7" spans="2:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="98" t="s">
+      <c r="C7" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="87"/>
-      <c r="E7" s="88"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="86"/>
     </row>
     <row r="8" spans="2:5" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="85"/>
-      <c r="E8" s="86"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="84"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:5" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="93" t="s">
+      <c r="B10" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="95"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="93"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="49" t="s">
+      <c r="C11" s="55"/>
+      <c r="D11" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="60"/>
+      <c r="E11" s="58"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="49" t="s">
+      <c r="C12" s="53"/>
+      <c r="D12" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="58" t="s">
+      <c r="E12" s="56" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="58" t="s">
+      <c r="E13" s="56" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="87" t="s">
+      <c r="C14" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="87"/>
-      <c r="E14" s="88"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="86"/>
     </row>
     <row r="15" spans="2:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="98" t="s">
+      <c r="C15" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="87"/>
-      <c r="E15" s="88"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="86"/>
     </row>
     <row r="16" spans="2:5" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="85"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="86"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="84"/>
     </row>
     <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:5" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="93" t="s">
+      <c r="B18" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="94"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="95"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="93"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="57"/>
-      <c r="D19" s="49" t="s">
+      <c r="C19" s="55"/>
+      <c r="D19" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="64"/>
+      <c r="E19" s="62"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="49" t="s">
+      <c r="C20" s="53"/>
+      <c r="D20" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="58" t="s">
+      <c r="E20" s="56" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="52" t="s">
+      <c r="C21" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="49" t="s">
+      <c r="D21" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="58" t="s">
+      <c r="E21" s="56" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="87" t="s">
+      <c r="C22" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="87"/>
-      <c r="E22" s="88"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="86"/>
     </row>
     <row r="23" spans="2:5" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="98" t="s">
+      <c r="C23" s="96" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="87"/>
-      <c r="E23" s="88"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="86"/>
     </row>
     <row r="24" spans="2:5" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="85" t="s">
+      <c r="C24" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="85"/>
-      <c r="E24" s="86"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C23:E23"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="C14:E14"/>
@@ -2533,6 +2541,11 @@
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="C22:E22"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C23:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DND/Player Cards/Magic Items Tracker.xlsx
+++ b/DND/Player Cards/Magic Items Tracker.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="87">
   <si>
     <t>Coloneous</t>
   </si>
@@ -274,6 +274,21 @@
   </si>
   <si>
     <t>Helm of Telepathy</t>
+  </si>
+  <si>
+    <t>Birdperson</t>
+  </si>
+  <si>
+    <t>Balto</t>
+  </si>
+  <si>
+    <t>Longsword</t>
+  </si>
+  <si>
+    <t>Chainmail</t>
+  </si>
+  <si>
+    <t>Ring of the Ram</t>
   </si>
 </sst>
 </file>
@@ -979,7 +994,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1167,6 +1182,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1239,13 +1263,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1557,329 +1578,395 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J26"/>
+  <dimension ref="B1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="38.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="38.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1"/>
       <c r="C2" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="F2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="G2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="67" t="s">
+      <c r="H2" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="63" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="101" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="J3" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="28" t="s">
+      <c r="K3" s="27"/>
+      <c r="L3" s="28" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="75" t="s">
+    <row r="4" spans="2:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
-      <c r="H4" s="29" t="s">
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+      <c r="J4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="27"/>
-      <c r="J4" s="30" t="s">
+      <c r="K4" s="27"/>
+      <c r="L4" s="30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="76"/>
+    <row r="5" spans="2:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="79"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="H5" s="31" t="s">
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+      <c r="J5" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-    </row>
-    <row r="6" spans="2:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+    </row>
+    <row r="6" spans="2:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="64" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="13"/>
+      <c r="J6" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-    </row>
-    <row r="7" spans="2:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+    </row>
+    <row r="7" spans="2:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="F7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
-      <c r="H7" s="33" t="s">
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="J7" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-    </row>
-    <row r="8" spans="2:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="75" t="s">
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+    </row>
+    <row r="8" spans="2:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
-      <c r="H8" s="34" t="s">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7"/>
+      <c r="J8" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-    </row>
-    <row r="9" spans="2:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="76"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+    </row>
+    <row r="9" spans="2:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="79"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="75" t="s">
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="78" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="D10" s="76" t="s">
+        <v>86</v>
+      </c>
       <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="77"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="80"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
-      <c r="F11" s="18"/>
-    </row>
-    <row r="12" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="77"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="80"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
-      <c r="F12" s="18"/>
-    </row>
-    <row r="13" spans="2:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="76"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" spans="2:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="79"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="2:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="2:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="65" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="14" t="s">
+      <c r="C15" s="15" t="s">
         <v>32</v>
       </c>
+      <c r="D15" s="15"/>
       <c r="E15" s="15"/>
-      <c r="F15" s="20"/>
-    </row>
-    <row r="16" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="75" t="s">
+      <c r="F15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="20"/>
+    </row>
+    <row r="16" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="100" t="s">
+      <c r="C16" s="103" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="103" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="F16" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="G16" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="H16" s="22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="77"/>
-      <c r="C17" s="99" t="s">
+    <row r="17" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="80"/>
+      <c r="C17" s="102" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="102"/>
+      <c r="E17" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="F17" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="G17" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="H17" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="77"/>
-      <c r="C18" s="23" t="s">
+    <row r="18" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="80"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="40" t="s">
+      <c r="F18" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="G18" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="H18" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="78"/>
-      <c r="C19" s="23" t="s">
+    <row r="19" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="81"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="F19" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="G19" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="36" t="s">
+      <c r="H19" s="36" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="78"/>
+    <row r="20" spans="2:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="81"/>
       <c r="C20" s="37"/>
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="36" t="s">
+      <c r="G20" s="4"/>
+      <c r="H20" s="36" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="75" t="s">
+    <row r="21" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="78" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="77"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="80"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
-      <c r="F22" s="18"/>
-    </row>
-    <row r="23" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="77"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="18"/>
+    </row>
+    <row r="23" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="80"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
-      <c r="F23" s="18"/>
-    </row>
-    <row r="24" spans="2:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="78"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24" spans="2:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="81"/>
       <c r="C24" s="37"/>
       <c r="D24" s="37"/>
       <c r="E24" s="37"/>
-      <c r="F24" s="38"/>
-    </row>
-    <row r="25" spans="2:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="38"/>
+    </row>
+    <row r="25" spans="2:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="43">
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43">
         <v>150</v>
       </c>
-      <c r="D25" s="43">
+      <c r="F25" s="43">
         <v>135</v>
       </c>
-      <c r="E25" s="43">
+      <c r="G25" s="43">
         <v>600</v>
       </c>
-      <c r="F25" s="45">
+      <c r="H25" s="45">
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="42">
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42">
         <v>117</v>
       </c>
-      <c r="D26" s="42">
+      <c r="F26" s="42">
         <v>65</v>
       </c>
-      <c r="E26" s="42">
+      <c r="G26" s="42">
         <v>126</v>
       </c>
-      <c r="F26" s="44">
+      <c r="H26" s="44">
         <v>81</v>
       </c>
     </row>
@@ -1963,12 +2050,12 @@
       </c>
     </row>
     <row r="11" spans="2:11" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="79" t="s">
+      <c r="C11" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="80"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="82"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="85"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C12" s="46" t="s">
@@ -2004,36 +2091,36 @@
       <c r="C15" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="86"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="89"/>
     </row>
     <row r="16" spans="2:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="85"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="86"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="89"/>
     </row>
     <row r="17" spans="3:10" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="84"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="87"/>
     </row>
     <row r="20" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I21" s="87" t="s">
+      <c r="I21" s="90" t="s">
         <v>72</v>
       </c>
-      <c r="J21" s="88"/>
+      <c r="J21" s="91"/>
     </row>
     <row r="22" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I22" s="89"/>
-      <c r="J22" s="90"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="93"/>
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.25">
       <c r="I23" s="69" t="s">
@@ -2111,12 +2198,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="46" t="s">
@@ -2158,29 +2245,29 @@
       <c r="B6" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="85"/>
-      <c r="E6" s="86"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="89"/>
     </row>
     <row r="7" spans="2:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="85" t="s">
+      <c r="C7" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="85"/>
-      <c r="E7" s="86"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="89"/>
     </row>
     <row r="8" spans="2:5" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="95"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2211,12 +2298,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="46" t="s">
@@ -2258,29 +2345,29 @@
       <c r="B6" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="85"/>
-      <c r="E6" s="86"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="89"/>
     </row>
     <row r="7" spans="2:5" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="96" t="s">
+      <c r="C7" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="85"/>
-      <c r="E7" s="86"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="89"/>
     </row>
     <row r="8" spans="2:5" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="98"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2311,12 +2398,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="46" t="s">
@@ -2358,40 +2445,40 @@
       <c r="B6" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="85"/>
-      <c r="E6" s="86"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="89"/>
     </row>
     <row r="7" spans="2:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="96" t="s">
+      <c r="C7" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="85"/>
-      <c r="E7" s="86"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="89"/>
     </row>
     <row r="8" spans="2:5" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="83"/>
-      <c r="E8" s="84"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="87"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:5" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="91" t="s">
+      <c r="B10" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="93"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="96"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="46" t="s">
@@ -2433,38 +2520,38 @@
       <c r="B14" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="85" t="s">
+      <c r="C14" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="85"/>
-      <c r="E14" s="86"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="89"/>
     </row>
     <row r="15" spans="2:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="96" t="s">
+      <c r="C15" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="85"/>
-      <c r="E15" s="86"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="89"/>
     </row>
     <row r="16" spans="2:5" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="83"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="84"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="87"/>
     </row>
     <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:5" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="91" t="s">
+      <c r="B18" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="92"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="93"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="96"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="46" t="s">
@@ -2506,34 +2593,39 @@
       <c r="B22" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="85" t="s">
+      <c r="C22" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="85"/>
-      <c r="E22" s="86"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="89"/>
     </row>
     <row r="23" spans="2:5" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="96" t="s">
+      <c r="C23" s="99" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="85"/>
-      <c r="E23" s="86"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="89"/>
     </row>
     <row r="24" spans="2:5" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="83" t="s">
+      <c r="C24" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="83"/>
-      <c r="E24" s="84"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C23:E23"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="C14:E14"/>
@@ -2541,11 +2633,6 @@
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="C22:E22"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C23:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DND/Player Cards/Magic Items Tracker.xlsx
+++ b/DND/Player Cards/Magic Items Tracker.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>Coloneous</t>
   </si>
@@ -290,12 +290,27 @@
   <si>
     <t>Ring of the Ram</t>
   </si>
+  <si>
+    <t>Boots of Levitation</t>
+  </si>
+  <si>
+    <t>Requires Attunement</t>
+  </si>
+  <si>
+    <t>Light Gaurdian</t>
+  </si>
+  <si>
+    <t>Ring of Regeneration</t>
+  </si>
+  <si>
+    <t>Ring of Spell Storing</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,6 +425,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="16">
     <fill>
@@ -994,7 +1026,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1079,9 +1111,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1104,12 +1133,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1185,10 +1208,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1263,10 +1289,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1581,7 +1619,7 @@
   <dimension ref="B1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1589,28 +1627,28 @@
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="8" width="38.7109375" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1"/>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="66" t="s">
+      <c r="F2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="66" t="s">
+      <c r="G2" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="67" t="s">
+      <c r="H2" s="64" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -1621,7 +1659,7 @@
       </c>
     </row>
     <row r="3" spans="2:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="60" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="5"/>
@@ -1629,7 +1667,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="77" t="s">
+      <c r="H3" s="73" t="s">
         <v>81</v>
       </c>
       <c r="J3" s="26" t="s">
@@ -1640,8 +1678,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="78" t="s">
+    <row r="4" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="6"/>
@@ -1654,26 +1692,28 @@
         <v>14</v>
       </c>
       <c r="K4" s="27"/>
-      <c r="L4" s="30" t="s">
+      <c r="L4" s="100" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="79"/>
+      <c r="B5" s="77"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="9"/>
-      <c r="J5" s="31" t="s">
+      <c r="J5" s="30" t="s">
         <v>19</v>
       </c>
       <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
+      <c r="L5" s="101" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="6" spans="2:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="61" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="10"/>
@@ -1684,14 +1724,14 @@
         <v>22</v>
       </c>
       <c r="H6" s="13"/>
-      <c r="J6" s="32" t="s">
+      <c r="J6" s="31" t="s">
         <v>15</v>
       </c>
       <c r="K6" s="27"/>
       <c r="L6" s="27"/>
     </row>
     <row r="7" spans="2:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="62" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="15" t="s">
@@ -1706,30 +1746,30 @@
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="16"/>
-      <c r="J7" s="33" t="s">
+      <c r="J7" s="32" t="s">
         <v>16</v>
       </c>
       <c r="K7" s="27"/>
       <c r="L7" s="27"/>
     </row>
     <row r="8" spans="2:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="7"/>
-      <c r="J8" s="34" t="s">
+      <c r="J8" s="33" t="s">
         <v>18</v>
       </c>
       <c r="K8" s="27"/>
       <c r="L8" s="27"/>
     </row>
     <row r="9" spans="2:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="79"/>
+      <c r="B9" s="77"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -1738,29 +1778,33 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="76" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="76" t="s">
+      <c r="D10" s="102" t="s">
         <v>86</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="102" t="s">
+        <v>90</v>
+      </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="80"/>
+      <c r="B11" s="78"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
+      <c r="E11" s="105" t="s">
+        <v>91</v>
+      </c>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
       <c r="H11" s="18"/>
     </row>
     <row r="12" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="80"/>
+      <c r="B12" s="78"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
@@ -1769,7 +1813,7 @@
       <c r="H12" s="18"/>
     </row>
     <row r="13" spans="2:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="79"/>
+      <c r="B13" s="77"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1778,24 +1822,26 @@
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="2:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="62" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
+      <c r="G14" s="103" t="s">
+        <v>87</v>
+      </c>
       <c r="H14" s="19" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>32</v>
+      <c r="C15" s="103" t="s">
+        <v>89</v>
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
@@ -1806,16 +1852,16 @@
       <c r="H15" s="20"/>
     </row>
     <row r="16" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="78" t="s">
+      <c r="B16" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="103" t="s">
+      <c r="C16" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="103" t="s">
+      <c r="D16" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="76" t="s">
+      <c r="E16" s="102" t="s">
         <v>80</v>
       </c>
       <c r="F16" s="21" t="s">
@@ -1829,15 +1875,15 @@
       </c>
     </row>
     <row r="17" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="80"/>
-      <c r="C17" s="102" t="s">
+      <c r="B17" s="78"/>
+      <c r="C17" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="102"/>
-      <c r="E17" s="75" t="s">
+      <c r="D17" s="74"/>
+      <c r="E17" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="39" t="s">
+      <c r="F17" s="104" t="s">
         <v>43</v>
       </c>
       <c r="G17" s="23" t="s">
@@ -1848,13 +1894,13 @@
       </c>
     </row>
     <row r="18" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="80"/>
+      <c r="B18" s="78"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="40" t="s">
+      <c r="F18" s="105" t="s">
         <v>44</v>
       </c>
       <c r="G18" s="23" t="s">
@@ -1865,7 +1911,7 @@
       </c>
     </row>
     <row r="19" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="81"/>
+      <c r="B19" s="79"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="23" t="s">
@@ -1874,31 +1920,33 @@
       <c r="F19" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="35" t="s">
+      <c r="G19" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="H19" s="36" t="s">
+      <c r="H19" s="35" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="81"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="35" t="s">
+      <c r="B20" s="79"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="34" t="s">
         <v>31</v>
       </c>
       <c r="G20" s="4"/>
-      <c r="H20" s="36" t="s">
+      <c r="H20" s="35" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="78" t="s">
+      <c r="B21" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="6"/>
+      <c r="C21" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -1906,7 +1954,7 @@
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="80"/>
+      <c r="B22" s="78"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
@@ -1915,7 +1963,7 @@
       <c r="H22" s="18"/>
     </row>
     <row r="23" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="80"/>
+      <c r="B23" s="78"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
@@ -1924,49 +1972,49 @@
       <c r="H23" s="18"/>
     </row>
     <row r="24" spans="2:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="81"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="38"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="37"/>
     </row>
     <row r="25" spans="2:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43">
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40">
         <v>150</v>
       </c>
-      <c r="F25" s="43">
+      <c r="F25" s="40">
         <v>135</v>
       </c>
-      <c r="G25" s="43">
+      <c r="G25" s="40">
         <v>600</v>
       </c>
-      <c r="H25" s="45">
+      <c r="H25" s="42">
         <v>150</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42">
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39">
         <v>117</v>
       </c>
-      <c r="F26" s="42">
+      <c r="F26" s="39">
         <v>65</v>
       </c>
-      <c r="G26" s="42">
+      <c r="G26" s="39">
         <v>126</v>
       </c>
-      <c r="H26" s="44">
+      <c r="H26" s="41">
         <v>81</v>
       </c>
     </row>
@@ -2022,7 +2070,7 @@
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="30" t="s">
         <v>19</v>
       </c>
       <c r="K5" t="s">
@@ -2030,17 +2078,17 @@
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="31" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="32" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="33" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2050,108 +2098,108 @@
       </c>
     </row>
     <row r="11" spans="2:11" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="82" t="s">
+      <c r="C11" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="83"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="85"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="83"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="51"/>
-      <c r="E12" s="47" t="s">
+      <c r="D12" s="48"/>
+      <c r="E12" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="59"/>
+      <c r="F12" s="56"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="52"/>
-      <c r="E13" s="47" t="s">
+      <c r="D13" s="49"/>
+      <c r="E13" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="56"/>
+      <c r="F13" s="53"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="47" t="s">
+      <c r="D14" s="47"/>
+      <c r="E14" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="56"/>
+      <c r="F14" s="53"/>
     </row>
     <row r="15" spans="2:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="89"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="87"/>
     </row>
     <row r="16" spans="2:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="89"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="87"/>
     </row>
     <row r="17" spans="3:10" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="87"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="85"/>
     </row>
     <row r="20" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I21" s="90" t="s">
+      <c r="I21" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="J21" s="91"/>
+      <c r="J21" s="89"/>
     </row>
     <row r="22" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I22" s="92"/>
-      <c r="J22" s="93"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="91"/>
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I23" s="69" t="s">
+      <c r="I23" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="J23" s="72">
+      <c r="J23" s="69">
         <f xml:space="preserve"> IFERROR(((J24 / 20) * IF(J25 = "C", 50, IF(J25 = "UC", 400, IF(J25 = "R", 4500, IF(J25 = "VR", 45000, IF(J25 = "L", 450000, ERF)))))) + IF(J25 = "C", 50, IF(J25 = "UC", 100, IF(J25 = "R", 500, IF(J25 = "VR", 5000, IF(J25 = "L", 50000, ERF))))), "N/A")</f>
         <v>4775</v>
       </c>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I24" s="70" t="s">
+      <c r="I24" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="J24" s="56">
+      <c r="J24" s="53">
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I25" s="71" t="s">
+      <c r="I25" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="J25" s="68" t="s">
+      <c r="J25" s="65" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="26" spans="3:10" ht="61.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I26" s="73" t="s">
+      <c r="I26" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="J26" s="74"/>
+      <c r="J26" s="71"/>
     </row>
     <row r="27" spans="3:10" ht="51" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="3:10" ht="51" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2198,76 +2246,76 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="94"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="47" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="58"/>
+      <c r="E3" s="55"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="47" t="s">
+      <c r="C4" s="51"/>
+      <c r="D4" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="56" t="s">
+      <c r="E4" s="53" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="53" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="88"/>
-      <c r="E6" s="89"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="87"/>
     </row>
     <row r="7" spans="2:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="88" t="s">
+      <c r="C7" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="88"/>
-      <c r="E7" s="89"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="87"/>
     </row>
     <row r="8" spans="2:5" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="98"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2298,76 +2346,76 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="94"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="47" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="57"/>
+      <c r="E3" s="54"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="47" t="s">
+      <c r="C4" s="51"/>
+      <c r="D4" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="56" t="s">
+      <c r="E4" s="53" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="53" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="88"/>
-      <c r="E6" s="89"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="87"/>
     </row>
     <row r="7" spans="2:5" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="99" t="s">
+      <c r="C7" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="88"/>
-      <c r="E7" s="89"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="87"/>
     </row>
     <row r="8" spans="2:5" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="101"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2398,234 +2446,229 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="94"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="47" t="s">
+      <c r="C3" s="58"/>
+      <c r="D3" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="60"/>
+      <c r="E3" s="57"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="47" t="s">
+      <c r="C4" s="51"/>
+      <c r="D4" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="56" t="s">
+      <c r="E4" s="53" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="53" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="88"/>
-      <c r="E6" s="89"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="87"/>
     </row>
     <row r="7" spans="2:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="99" t="s">
+      <c r="C7" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="88"/>
-      <c r="E7" s="89"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="87"/>
     </row>
     <row r="8" spans="2:5" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="86" t="s">
+      <c r="C8" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="86"/>
-      <c r="E8" s="87"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="85"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:5" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="94" t="s">
+      <c r="B10" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="96"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="94"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="47" t="s">
+      <c r="C11" s="52"/>
+      <c r="D11" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="58"/>
+      <c r="E11" s="55"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="47" t="s">
+      <c r="C12" s="50"/>
+      <c r="D12" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="56" t="s">
+      <c r="E12" s="53" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="56" t="s">
+      <c r="E13" s="53" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="88" t="s">
+      <c r="C14" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="88"/>
-      <c r="E14" s="89"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="87"/>
     </row>
     <row r="15" spans="2:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="99" t="s">
+      <c r="C15" s="97" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="88"/>
-      <c r="E15" s="89"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="87"/>
     </row>
     <row r="16" spans="2:5" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="87"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="85"/>
     </row>
     <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:5" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="94" t="s">
+      <c r="B18" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="95"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="96"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="94"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="47" t="s">
+      <c r="C19" s="52"/>
+      <c r="D19" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="62"/>
+      <c r="E19" s="59"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="53"/>
-      <c r="D20" s="47" t="s">
+      <c r="C20" s="50"/>
+      <c r="D20" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="56" t="s">
+      <c r="E20" s="53" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="47" t="s">
+      <c r="D21" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="56" t="s">
+      <c r="E21" s="53" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="88" t="s">
+      <c r="C22" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="88"/>
-      <c r="E22" s="89"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="87"/>
     </row>
     <row r="23" spans="2:5" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="99" t="s">
+      <c r="C23" s="97" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="88"/>
-      <c r="E23" s="89"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="87"/>
     </row>
     <row r="24" spans="2:5" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="86" t="s">
+      <c r="C24" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="86"/>
-      <c r="E24" s="87"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C23:E23"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="C14:E14"/>
@@ -2633,6 +2676,11 @@
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="C22:E22"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C23:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DND/Player Cards/Magic Items Tracker.xlsx
+++ b/DND/Player Cards/Magic Items Tracker.xlsx
@@ -270,9 +270,6 @@
 - If both Exemplarly and Jealousy hit on this turn, target makes a constitution saving throw (DC d20 roll without modifier). Failed saves take 1d4 Necrotic Damage.</t>
   </si>
   <si>
-    <t>Staff of the Wild</t>
-  </si>
-  <si>
     <t>Helm of Telepathy</t>
   </si>
   <si>
@@ -304,13 +301,16 @@
   </si>
   <si>
     <t>Ring of Spell Storing</t>
+  </si>
+  <si>
+    <t>Staff of the Woodlands</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,15 +356,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1026,7 +1017,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1057,9 +1048,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1078,18 +1066,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1135,19 +1117,19 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1184,10 +1166,10 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1201,20 +1183,35 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1229,16 +1226,16 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1253,25 +1250,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1289,22 +1286,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1619,7 +1613,7 @@
   <dimension ref="B1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1633,22 +1627,22 @@
     <row r="1" spans="2:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1"/>
-      <c r="C2" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="63" t="s">
+      <c r="C2" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="63" t="s">
+      <c r="D2" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="63" t="s">
+      <c r="F2" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="63" t="s">
+      <c r="G2" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="64" t="s">
+      <c r="H2" s="61" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -1659,7 +1653,7 @@
       </c>
     </row>
     <row r="3" spans="2:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="57" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="5"/>
@@ -1667,19 +1661,19 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="73" t="s">
-        <v>81</v>
-      </c>
-      <c r="J3" s="26" t="s">
+      <c r="H3" s="103" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="27"/>
-      <c r="L3" s="28" t="s">
+      <c r="K3" s="24"/>
+      <c r="L3" s="25" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="6"/>
@@ -1688,88 +1682,88 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="7"/>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="27"/>
-      <c r="L4" s="100" t="s">
+      <c r="K4" s="24"/>
+      <c r="L4" s="72" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="77"/>
+      <c r="B5" s="79"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="9"/>
-      <c r="J5" s="30" t="s">
+      <c r="J5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="27"/>
-      <c r="L5" s="101" t="s">
-        <v>88</v>
+      <c r="K5" s="24"/>
+      <c r="L5" s="73" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="58" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="J6" s="31" t="s">
+      <c r="H6" s="12"/>
+      <c r="J6" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
     </row>
     <row r="7" spans="2:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="14" t="s">
+      <c r="C7" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
-      <c r="J7" s="32" t="s">
+      <c r="G7" s="14"/>
+      <c r="H7" s="15"/>
+      <c r="J7" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
     </row>
     <row r="8" spans="2:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="7"/>
-      <c r="J8" s="33" t="s">
+      <c r="J8" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
     </row>
     <row r="9" spans="2:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="77"/>
+      <c r="B9" s="79"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -1778,42 +1772,42 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="78" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="102" t="s">
-        <v>86</v>
+      <c r="D10" s="74" t="s">
+        <v>85</v>
       </c>
       <c r="E10" s="102" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="78"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="105" t="s">
-        <v>91</v>
-      </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="78"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" spans="2:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="77"/>
+      <c r="B13" s="79"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1822,126 +1816,126 @@
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="2:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="103" t="s">
-        <v>87</v>
-      </c>
-      <c r="H14" s="19" t="s">
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="75" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="104" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="103" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="14" t="s">
+      <c r="C15" s="75" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="20"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="18"/>
     </row>
     <row r="16" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="76" t="s">
+      <c r="B16" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="75" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" s="75" t="s">
+      <c r="C16" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="102" t="s">
-        <v>80</v>
-      </c>
-      <c r="F16" s="21" t="s">
+      <c r="E16" s="74" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="H16" s="105" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="78"/>
-      <c r="C17" s="74" t="s">
+      <c r="B17" s="80"/>
+      <c r="C17" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="74"/>
-      <c r="E17" s="72" t="s">
+      <c r="D17" s="70"/>
+      <c r="E17" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="104" t="s">
+      <c r="F17" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="25" t="s">
+      <c r="H17" s="22" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="78"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="23" t="s">
+      <c r="B18" s="80"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="105" t="s">
+      <c r="F18" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="25" t="s">
+      <c r="H18" s="22" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="79"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="23" t="s">
+      <c r="B19" s="81"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="F19" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="34" t="s">
+      <c r="G19" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="H19" s="35" t="s">
+      <c r="H19" s="32" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="79"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="34" t="s">
+      <c r="B20" s="81"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="31" t="s">
         <v>31</v>
       </c>
       <c r="G20" s="4"/>
-      <c r="H20" s="35" t="s">
+      <c r="H20" s="32" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="76" t="s">
+      <c r="B21" s="78" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -1954,67 +1948,67 @@
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="78"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="18"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="17"/>
     </row>
     <row r="23" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="78"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="18"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="17"/>
     </row>
     <row r="24" spans="2:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="79"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="37"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="34"/>
     </row>
     <row r="25" spans="2:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40">
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37">
         <v>150</v>
       </c>
-      <c r="F25" s="40">
+      <c r="F25" s="37">
         <v>135</v>
       </c>
-      <c r="G25" s="40">
+      <c r="G25" s="37">
         <v>600</v>
       </c>
-      <c r="H25" s="42">
+      <c r="H25" s="39">
         <v>150</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39">
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36">
         <v>117</v>
       </c>
-      <c r="F26" s="39">
+      <c r="F26" s="36">
         <v>65</v>
       </c>
-      <c r="G26" s="39">
+      <c r="G26" s="36">
         <v>126</v>
       </c>
-      <c r="H26" s="41">
+      <c r="H26" s="38">
         <v>81</v>
       </c>
     </row>
@@ -2057,12 +2051,12 @@
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="23" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="26" t="s">
         <v>14</v>
       </c>
       <c r="K4" t="s">
@@ -2070,7 +2064,7 @@
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="27" t="s">
         <v>19</v>
       </c>
       <c r="K5" t="s">
@@ -2078,17 +2072,17 @@
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="28" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="29" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="30" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2098,108 +2092,108 @@
       </c>
     </row>
     <row r="11" spans="2:11" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="80" t="s">
+      <c r="C11" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="81"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="85"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="44" t="s">
+      <c r="D12" s="45"/>
+      <c r="E12" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="56"/>
+      <c r="F12" s="53"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="44" t="s">
+      <c r="D13" s="46"/>
+      <c r="E13" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="53"/>
+      <c r="F13" s="50"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="44" t="s">
+      <c r="D14" s="44"/>
+      <c r="E14" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="53"/>
+      <c r="F14" s="50"/>
     </row>
     <row r="15" spans="2:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="87"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="89"/>
     </row>
     <row r="16" spans="2:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="87"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="89"/>
     </row>
     <row r="17" spans="3:10" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="85"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="87"/>
     </row>
     <row r="20" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I21" s="88" t="s">
+      <c r="I21" s="90" t="s">
         <v>72</v>
       </c>
-      <c r="J21" s="89"/>
+      <c r="J21" s="91"/>
     </row>
     <row r="22" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I22" s="90"/>
-      <c r="J22" s="91"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="93"/>
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I23" s="66" t="s">
+      <c r="I23" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="J23" s="69">
+      <c r="J23" s="66">
         <f xml:space="preserve"> IFERROR(((J24 / 20) * IF(J25 = "C", 50, IF(J25 = "UC", 400, IF(J25 = "R", 4500, IF(J25 = "VR", 45000, IF(J25 = "L", 450000, ERF)))))) + IF(J25 = "C", 50, IF(J25 = "UC", 100, IF(J25 = "R", 500, IF(J25 = "VR", 5000, IF(J25 = "L", 50000, ERF))))), "N/A")</f>
         <v>4775</v>
       </c>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I24" s="67" t="s">
+      <c r="I24" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="J24" s="53">
+      <c r="J24" s="50">
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I25" s="68" t="s">
+      <c r="I25" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="J25" s="65" t="s">
+      <c r="J25" s="62" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="26" spans="3:10" ht="61.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I26" s="70" t="s">
+      <c r="I26" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="J26" s="71"/>
+      <c r="J26" s="68"/>
     </row>
     <row r="27" spans="3:10" ht="51" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="3:10" ht="51" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2246,76 +2240,76 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="94"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="44" t="s">
+      <c r="C3" s="49"/>
+      <c r="D3" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="55"/>
+      <c r="E3" s="52"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="44" t="s">
+      <c r="C4" s="48"/>
+      <c r="D4" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="50" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="86" t="s">
+      <c r="C6" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="86"/>
-      <c r="E6" s="87"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="89"/>
     </row>
     <row r="7" spans="2:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="86"/>
-      <c r="E7" s="87"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="89"/>
     </row>
     <row r="8" spans="2:5" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="96"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2346,76 +2340,76 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="94"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="44" t="s">
+      <c r="C3" s="49"/>
+      <c r="D3" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="54"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="44" t="s">
+      <c r="C4" s="48"/>
+      <c r="D4" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="50" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="50" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="86" t="s">
+      <c r="C6" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="86"/>
-      <c r="E6" s="87"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="89"/>
     </row>
     <row r="7" spans="2:5" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="97" t="s">
+      <c r="C7" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="86"/>
-      <c r="E7" s="87"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="89"/>
     </row>
     <row r="8" spans="2:5" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="99"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2446,229 +2440,234 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="94"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="44" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="57"/>
+      <c r="E3" s="54"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="44" t="s">
+      <c r="C4" s="48"/>
+      <c r="D4" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="50" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="50" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="86" t="s">
+      <c r="C6" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="86"/>
-      <c r="E6" s="87"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="89"/>
     </row>
     <row r="7" spans="2:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="97" t="s">
+      <c r="C7" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="86"/>
-      <c r="E7" s="87"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="89"/>
     </row>
     <row r="8" spans="2:5" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="84"/>
-      <c r="E8" s="85"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="87"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:5" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="92" t="s">
+      <c r="B10" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="94"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="96"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="44" t="s">
+      <c r="C11" s="49"/>
+      <c r="D11" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="55"/>
+      <c r="E11" s="52"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="44" t="s">
+      <c r="C12" s="47"/>
+      <c r="D12" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="53" t="s">
+      <c r="E12" s="50" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="53" t="s">
+      <c r="E13" s="50" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="86" t="s">
+      <c r="C14" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="86"/>
-      <c r="E14" s="87"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="89"/>
     </row>
     <row r="15" spans="2:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="97" t="s">
+      <c r="C15" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="86"/>
-      <c r="E15" s="87"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="89"/>
     </row>
     <row r="16" spans="2:5" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="85"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="87"/>
     </row>
     <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:5" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="92" t="s">
+      <c r="B18" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="94"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="96"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="44" t="s">
+      <c r="C19" s="49"/>
+      <c r="D19" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="59"/>
+      <c r="E19" s="56"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="44" t="s">
+      <c r="C20" s="47"/>
+      <c r="D20" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="53" t="s">
+      <c r="E20" s="50" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="47" t="s">
+      <c r="C21" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="44" t="s">
+      <c r="D21" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="53" t="s">
+      <c r="E21" s="50" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="86" t="s">
+      <c r="C22" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="86"/>
-      <c r="E22" s="87"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="89"/>
     </row>
     <row r="23" spans="2:5" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="97" t="s">
+      <c r="C23" s="99" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="86"/>
-      <c r="E23" s="87"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="89"/>
     </row>
     <row r="24" spans="2:5" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="84" t="s">
+      <c r="C24" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="84"/>
-      <c r="E24" s="85"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C23:E23"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="C14:E14"/>
@@ -2676,11 +2675,6 @@
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="C22:E22"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C23:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DND/Player Cards/Magic Items Tracker.xlsx
+++ b/DND/Player Cards/Magic Items Tracker.xlsx
@@ -294,9 +294,6 @@
     <t>Requires Attunement</t>
   </si>
   <si>
-    <t>Light Gaurdian</t>
-  </si>
-  <si>
     <t>Ring of Regeneration</t>
   </si>
   <si>
@@ -304,6 +301,9 @@
   </si>
   <si>
     <t>Staff of the Woodlands</t>
+  </si>
+  <si>
+    <t>Blind Faith</t>
   </si>
 </sst>
 </file>
@@ -1214,6 +1214,21 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1285,21 +1300,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1613,7 +1613,7 @@
   <dimension ref="B1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1661,7 +1661,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="103" t="s">
+      <c r="H3" s="79" t="s">
         <v>80</v>
       </c>
       <c r="J3" s="23" t="s">
@@ -1673,7 +1673,7 @@
       </c>
     </row>
     <row r="4" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="83" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="6"/>
@@ -1691,7 +1691,7 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="79"/>
+      <c r="B5" s="84"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -1714,7 +1714,7 @@
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="106" t="s">
+      <c r="G6" s="82" t="s">
         <v>22</v>
       </c>
       <c r="H6" s="12"/>
@@ -1747,7 +1747,7 @@
       <c r="L7" s="24"/>
     </row>
     <row r="8" spans="2:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="83" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="70"/>
@@ -1763,7 +1763,7 @@
       <c r="L8" s="24"/>
     </row>
     <row r="9" spans="2:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="79"/>
+      <c r="B9" s="84"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -1772,33 +1772,33 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="83" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="E10" s="102" t="s">
-        <v>89</v>
+      <c r="E10" s="78" t="s">
+        <v>88</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="80"/>
+      <c r="B11" s="85"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
       <c r="E11" s="77" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
       <c r="H11" s="17"/>
     </row>
     <row r="12" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="80"/>
+      <c r="B12" s="85"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
@@ -1807,7 +1807,7 @@
       <c r="H12" s="17"/>
     </row>
     <row r="13" spans="2:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="79"/>
+      <c r="B13" s="84"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1826,7 +1826,7 @@
       <c r="G14" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="H14" s="104" t="s">
+      <c r="H14" s="80" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1835,7 +1835,7 @@
         <v>32</v>
       </c>
       <c r="C15" s="75" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
@@ -1846,7 +1846,7 @@
       <c r="H15" s="18"/>
     </row>
     <row r="16" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="78" t="s">
+      <c r="B16" s="83" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="71" t="s">
@@ -1856,7 +1856,7 @@
         <v>26</v>
       </c>
       <c r="E16" s="74" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F16" s="19" t="s">
         <v>29</v>
@@ -1864,12 +1864,12 @@
       <c r="G16" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="105" t="s">
+      <c r="H16" s="81" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="80"/>
+      <c r="B17" s="85"/>
       <c r="C17" s="70" t="s">
         <v>40</v>
       </c>
@@ -1888,7 +1888,7 @@
       </c>
     </row>
     <row r="18" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="80"/>
+      <c r="B18" s="85"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="20" t="s">
@@ -1905,7 +1905,7 @@
       </c>
     </row>
     <row r="19" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="81"/>
+      <c r="B19" s="86"/>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
       <c r="E19" s="20" t="s">
@@ -1922,7 +1922,7 @@
       </c>
     </row>
     <row r="20" spans="2:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="81"/>
+      <c r="B20" s="86"/>
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
@@ -1935,7 +1935,7 @@
       </c>
     </row>
     <row r="21" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="78" t="s">
+      <c r="B21" s="83" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -1948,7 +1948,7 @@
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="80"/>
+      <c r="B22" s="85"/>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
@@ -1957,7 +1957,7 @@
       <c r="H22" s="17"/>
     </row>
     <row r="23" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="80"/>
+      <c r="B23" s="85"/>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
@@ -1966,7 +1966,7 @@
       <c r="H23" s="17"/>
     </row>
     <row r="24" spans="2:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="81"/>
+      <c r="B24" s="86"/>
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
@@ -2092,12 +2092,12 @@
       </c>
     </row>
     <row r="11" spans="2:11" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="82" t="s">
+      <c r="C11" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="83"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="85"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="90"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C12" s="40" t="s">
@@ -2133,36 +2133,36 @@
       <c r="C15" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="89"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="94"/>
     </row>
     <row r="16" spans="2:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="89"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="94"/>
     </row>
     <row r="17" spans="3:10" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="87"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="92"/>
     </row>
     <row r="20" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I21" s="90" t="s">
+      <c r="I21" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="J21" s="91"/>
+      <c r="J21" s="96"/>
     </row>
     <row r="22" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I22" s="92"/>
-      <c r="J22" s="93"/>
+      <c r="I22" s="97"/>
+      <c r="J22" s="98"/>
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.25">
       <c r="I23" s="63" t="s">
@@ -2240,12 +2240,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="101"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="40" t="s">
@@ -2287,29 +2287,29 @@
       <c r="B6" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="88"/>
-      <c r="E6" s="89"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="94"/>
     </row>
     <row r="7" spans="2:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="88" t="s">
+      <c r="C7" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="88"/>
-      <c r="E7" s="89"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="94"/>
     </row>
     <row r="8" spans="2:5" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="98"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2340,12 +2340,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="101"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="40" t="s">
@@ -2387,29 +2387,29 @@
       <c r="B6" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="88"/>
-      <c r="E6" s="89"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="94"/>
     </row>
     <row r="7" spans="2:5" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="99" t="s">
+      <c r="C7" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="88"/>
-      <c r="E7" s="89"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="94"/>
     </row>
     <row r="8" spans="2:5" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="101"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2440,12 +2440,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="101"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="40" t="s">
@@ -2487,40 +2487,40 @@
       <c r="B6" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="88"/>
-      <c r="E6" s="89"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="94"/>
     </row>
     <row r="7" spans="2:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="99" t="s">
+      <c r="C7" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="88"/>
-      <c r="E7" s="89"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="94"/>
     </row>
     <row r="8" spans="2:5" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="86" t="s">
+      <c r="C8" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="86"/>
-      <c r="E8" s="87"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="92"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:5" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="94" t="s">
+      <c r="B10" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="96"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="101"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="40" t="s">
@@ -2562,38 +2562,38 @@
       <c r="B14" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="88" t="s">
+      <c r="C14" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="88"/>
-      <c r="E14" s="89"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="94"/>
     </row>
     <row r="15" spans="2:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="99" t="s">
+      <c r="C15" s="104" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="88"/>
-      <c r="E15" s="89"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="94"/>
     </row>
     <row r="16" spans="2:5" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="87"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="92"/>
     </row>
     <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:5" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="94" t="s">
+      <c r="B18" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="95"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="96"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="101"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="40" t="s">
@@ -2635,39 +2635,34 @@
       <c r="B22" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="88" t="s">
+      <c r="C22" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="88"/>
-      <c r="E22" s="89"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="94"/>
     </row>
     <row r="23" spans="2:5" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="99" t="s">
+      <c r="C23" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="88"/>
-      <c r="E23" s="89"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="94"/>
     </row>
     <row r="24" spans="2:5" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="86" t="s">
+      <c r="C24" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="86"/>
-      <c r="E24" s="87"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C23:E23"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="C14:E14"/>
@@ -2675,6 +2670,11 @@
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="C22:E22"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C23:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DND/Player Cards/Magic Items Tracker.xlsx
+++ b/DND/Player Cards/Magic Items Tracker.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="93">
   <si>
     <t>Coloneous</t>
   </si>
@@ -304,6 +304,9 @@
   </si>
   <si>
     <t>Blind Faith</t>
+  </si>
+  <si>
+    <t>Robe of Useful Things</t>
   </si>
 </sst>
 </file>
@@ -1017,7 +1020,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1300,6 +1303,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1613,7 +1619,7 @@
   <dimension ref="B1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1945,7 +1951,9 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="7"/>
+      <c r="H21" s="107" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="22" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="85"/>
@@ -2663,6 +2671,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C23:E23"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="C14:E14"/>
@@ -2670,11 +2683,6 @@
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="C22:E22"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C23:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
